--- a/loaded_influencer_data/kateygracek/kateygracek_video.xlsx
+++ b/loaded_influencer_data/kateygracek/kateygracek_video.xlsx
@@ -506,19 +506,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7453867679301094689</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="C2" t="n">
         <v>144</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -528,23 +528,24 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>오늘 시골 산책에서 가장 친근한 마을 고양이를 만났습니다🥹 우리가 만날 수 있는 모든 동물들에 대해 내 마음은 녹는다🫶 우리가 지난 주에 런던을 방문했을 때 우리는 하루 동안만 그곳에 있었고 정말로 시골로 돌아오기를 기다릴 수 없었습니다. 사람들이 콘크리트 정글에서 어떻게 사는지 알 수 없습니다. 매일 구르는 언덕과 동물을 봅니다. 각자에게 🤗</t>
+          <t>Met the friendliest village cat on a countryside walk today 🥹
+My heart melts for all the animals we get to meet. 🫶</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14.59781529294935</v>
+        <v>14.39842209072978</v>
       </c>
       <c r="I2" t="n">
-        <v>14.29990069513406</v>
+        <v>14.20118343195266</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2979145978152929</v>
+        <v>0.1972386587771203</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5958291956305859</v>
+        <v>0.591715976331361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -556,19 +557,19 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7451992070505467168</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C3" t="n">
         <v>120</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -578,20 +579,21 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Absolute tanning fail I’ve been so pale for so long I thought I’d tan for a few hours now I match my cat 😭 Praying a good slap of makeup hides the pumpkin orange essence 🍊 Merry Christmas Eve ❤️❤️🎄🍷✨ #tanning #selftan #christmaseve #christmas #familytime #holidays #cat #love #skin #fyp #fyppp</t>
+          <t>Absolute tanning fail I’ve been so pale for so long I thought I’d tan for a few hours now I match my cat 😭
+Praying a good slap of makeup hides the pumpkin orange essence 🍊</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>15.64885496183206</v>
+        <v>15.98984771573604</v>
       </c>
       <c r="I3" t="n">
-        <v>15.26717557251908</v>
+        <v>15.22842639593909</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3816793893129771</v>
+        <v>0.7614213197969544</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -606,13 +608,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7451989934019218720</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C4" t="n">
         <v>58</v>
@@ -628,20 +630,21 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>완전 태닝 실패 너무 오랫동안 창백해서 몇 시간 동안 태닝을 할 줄 알았는데 이제 고양이와 일치😭 좋은 메이크업을 기도하면 호박 오렌지 에센스가 숨겨집니다🍊 메리 크리스마스 이브 ❤️❤️🎄🍷✨</t>
+          <t>Cute little London Christmas trip with my love 🫶✨
+We also got the most unbelievable deal at the cuuutest hotel 🏨 🎄😍</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7.4719800747198</v>
+        <v>7.453416149068323</v>
       </c>
       <c r="I4" t="n">
-        <v>7.22291407222914</v>
+        <v>7.204968944099378</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.24906600249066</v>
+        <v>0.2484472049689441</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -656,19 +659,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7449793727507254561</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C5" t="n">
         <v>116</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -678,23 +681,24 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>내가 가장 좋아하는 영국 브랜드 중 하나에서 첫 PR을 받았습니다✨🫶💕 공식적으로 그들의 스킨사이더 프로그램에 참여하게 되어 매우 기쁩니다. 그리고 저의 특별 코드인 ELEMIS0182를 전체 주문에서 20% 할인된 가격으로 공유하게 되어 매우 기쁩니다💖💖💖 내 파트너는 엄마에게 크리스마스 선물을 주문하는 데 그것을 사용했습니다 - 너무 귀엽다 🥹🥰🎄</t>
+          <t>Got my first PR from one of my favorite UK brands @ELEMIS UKI ✨🫶💕
+So excited to officially be part of their Skinsiders program and share my special code: ELEMIS0182 for 20% off your entire order 💖💖💖</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>14.90104772991851</v>
+        <v>16.22247972190035</v>
       </c>
       <c r="I5" t="n">
-        <v>13.50407450523865</v>
+        <v>13.441483198146</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.39697322467986</v>
+        <v>2.780996523754345</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6984866123399301</v>
+        <v>0.6952491309385863</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -706,19 +710,19 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7446825155545910560</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C6" t="n">
         <v>177</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -728,23 +732,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>아! !! 오늘 첫 PR이 우편으로 왔습니다! !! 🥹 나는 공식적으로 내 코드를 가진 프로그램의 일부이다. 너무 초현실적으로 느껴진다🫶💕 계속 게시하고, 참여하고, 나타나세요! 곧 결실을 맺을 🥰💖 언박싱을 하고 모든 것을 시도 할 것입니다 - 계속 지켜봐 주십시오 ✨</t>
+          <t>Ahh!!! My first PR came in the mail today!!! 🥹
+I’m officially apart of a program with my own code - feels so surreal 🫶💕</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17.20226843100189</v>
+        <v>16.88679245283019</v>
       </c>
       <c r="I6" t="n">
-        <v>16.7296786389414</v>
+        <v>16.69811320754717</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4725897920604915</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="L6" t="n">
-        <v>1.417769376181474</v>
+        <v>1.415094339622642</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -756,19 +761,19 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7445294413259017504</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4019</v>
+        <v>4035</v>
       </c>
       <c r="C7" t="n">
         <v>93</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -778,23 +783,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>그는 우리 여자들을 너무 사랑해서 이걸 보면 죽을 것 같아!!🥰🥺💕 7월은 내가 가장 좋아하는 😂🫶🕶️</t>
+          <t>He loves our girls so much he is going to die when he sees this!! 🥰🥺💕
+July is my favorite 😂🫶🕶️</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.413535705399353</v>
+        <v>2.379182156133829</v>
       </c>
       <c r="I7" t="n">
-        <v>2.314008459815875</v>
+        <v>2.304832713754647</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09952724558347847</v>
+        <v>0.07434944237918216</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3234635481463051</v>
+        <v>0.322180916976456</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -806,13 +812,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7444218736996928800</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="C8" t="n">
         <v>162</v>
@@ -828,23 +834,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>I fall more in love with this man everyday 🥹 offered his jacket to the restaurants stray cat and invited him to stay with us 😂 Always choose the man that loves all animals 💕 #dinner #datenight #italian #straycat #restaurant #countryside #england #uk #livingabroad #expat #relationship #fyp</t>
+          <t>I fall more in love with this man everyday 🥹 offered his jacket to the restaurants stray cat and invited him to stay with us 😂</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>17.67109295199183</v>
+        <v>17.59918616480163</v>
       </c>
       <c r="I8" t="n">
-        <v>16.54749744637385</v>
+        <v>16.48016276703967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.123595505617978</v>
+        <v>1.119023397761953</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5107252298263534</v>
+        <v>0.508646998982706</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -856,13 +862,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7444171188944866592</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="C9" t="n">
         <v>339</v>
@@ -878,23 +884,23 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Everyone has been so amazing and engaging and I want to meet more accounts to engage with!!! 🥹🫶💕💕 Lets support each other and grow this month!! 💖 #teamwork #teamworktrend #support #girlssupportgirls #community #trend #newtiktok #contentcreator #livingabroad #fyp #fyppp</t>
+          <t>Everyone has been so amazing and engaging and I want to meet more accounts to engage with!!! 🥹🫶💕💕</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>27.87018255578093</v>
+        <v>27.83630470016207</v>
       </c>
       <c r="I9" t="n">
-        <v>13.7525354969574</v>
+        <v>13.73581847649919</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>14.11764705882353</v>
+        <v>14.10048622366288</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6085192697768762</v>
+        <v>0.6077795786061588</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -906,19 +912,19 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/photo/7443903453623012641</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -928,23 +934,24 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>내 계정을 키우고 여기에서 더 많은 친구를 만나고 싶어서 이것이 12월의 목표입니다. 🥰🤍✨ #goals #december</t>
+          <t>Eager to grow my account and meet more friends on here so these are my goals for December 🥰🤍✨
+#goals</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>12.02600216684724</v>
+        <v>12.20302375809935</v>
       </c>
       <c r="I10" t="n">
-        <v>10.83423618634886</v>
+        <v>10.79913606911447</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.191765980498375</v>
+        <v>1.403887688984881</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7583965330444203</v>
+        <v>0.755939524838013</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -956,7 +963,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/photo/7443846170058771745</t>
         </is>
@@ -1006,7 +1013,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7443093397193198880</t>
         </is>
@@ -1056,7 +1063,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7442742761247214881</t>
         </is>
@@ -1106,7 +1113,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7441597781703134496</t>
         </is>
@@ -1156,7 +1163,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7440182626389937441</t>
         </is>
@@ -1206,7 +1213,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7439730244027829537</t>
         </is>
@@ -1256,7 +1263,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7439355719138184480</t>
         </is>
@@ -1306,7 +1313,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7438989833424358688</t>
         </is>
@@ -1356,7 +1363,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7438653404789951776</t>
         </is>
@@ -1406,7 +1413,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7438637034790489377</t>
         </is>
@@ -1456,7 +1463,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7437210972445560096</t>
         </is>
@@ -1506,7 +1513,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7437180079362346272</t>
         </is>
@@ -1556,7 +1563,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7437146081626033440</t>
         </is>
@@ -1606,7 +1613,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kateygracek/video/7436768218494127392</t>
         </is>
